--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t xml:space="preserve">Tim</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve">Der mit dem Wolf tanzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
 </sst>
 </file>
@@ -262,6 +265,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -343,21 +347,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,6 +623,11 @@
       </c>
       <c r="E15" s="0" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t xml:space="preserve">Tim</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t xml:space="preserve">Der mit dem Wolf tanzt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
   </si>
 </sst>
 </file>
@@ -347,21 +344,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0867346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,11 +619,6 @@
       </c>
       <c r="E15" s="0" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t xml:space="preserve">Tim</t>
   </si>
@@ -37,6 +37,12 @@
     <t xml:space="preserve">Bene</t>
   </si>
   <si>
+    <t xml:space="preserve">domi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tatti</t>
+  </si>
+  <si>
     <t xml:space="preserve">Komödie</t>
   </si>
   <si>
@@ -49,10 +55,10 @@
     <t xml:space="preserve">Superbad</t>
   </si>
   <si>
-    <t xml:space="preserve">Ted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminal</t>
+    <t xml:space="preserve">Die Wunderbare Welt der Schwerkraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oscar</t>
   </si>
   <si>
     <t xml:space="preserve">Acion</t>
@@ -67,6 +73,9 @@
     <t xml:space="preserve">Last Samurai</t>
   </si>
   <si>
+    <t xml:space="preserve">hardcore henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">Superheld</t>
   </si>
   <si>
@@ -82,7 +91,7 @@
     <t xml:space="preserve">Spiderman 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Goldfinger</t>
+    <t xml:space="preserve">thor</t>
   </si>
   <si>
     <t xml:space="preserve">Western</t>
@@ -145,9 +154,6 @@
     <t xml:space="preserve">Schindlers Liste</t>
   </si>
   <si>
-    <t xml:space="preserve">Forrest Gump</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mindfuck</t>
   </si>
   <si>
@@ -175,9 +181,6 @@
     <t xml:space="preserve">12 Angry Men</t>
   </si>
   <si>
-    <t xml:space="preserve">From Dusk Till Dawn</t>
-  </si>
-  <si>
     <t xml:space="preserve">große Regisseure</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halloween</t>
   </si>
   <si>
     <t xml:space="preserve">SciFi</t>
@@ -344,20 +350,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,249 +383,255 @@
       <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t xml:space="preserve">Tim</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">tatti</t>
   </si>
   <si>
+    <t xml:space="preserve">daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Komödie</t>
   </si>
   <si>
@@ -58,7 +61,10 @@
     <t xml:space="preserve">Die Wunderbare Welt der Schwerkraft</t>
   </si>
   <si>
-    <t xml:space="preserve">oscar</t>
+    <t xml:space="preserve">Manichithrathazhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar</t>
   </si>
   <si>
     <t xml:space="preserve">Acion</t>
@@ -73,7 +79,16 @@
     <t xml:space="preserve">Last Samurai</t>
   </si>
   <si>
-    <t xml:space="preserve">hardcore henry</t>
+    <t xml:space="preserve">Before I Wake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardcore Henry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avengers</t>
   </si>
   <si>
     <t xml:space="preserve">Superheld</t>
@@ -91,7 +106,10 @@
     <t xml:space="preserve">Spiderman 2</t>
   </si>
   <si>
-    <t xml:space="preserve">thor</t>
+    <t xml:space="preserve">Hellboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thor</t>
   </si>
   <si>
     <t xml:space="preserve">Western</t>
@@ -109,6 +127,9 @@
     <t xml:space="preserve">4 Fäuste für ein Halleluja</t>
   </si>
   <si>
+    <t xml:space="preserve">Bone Tomahawk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weihnachten</t>
   </si>
   <si>
@@ -124,6 +145,12 @@
     <t xml:space="preserve">It‘s a Wonderful Life</t>
   </si>
   <si>
+    <t xml:space="preserve">Krampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry Potter I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trash</t>
   </si>
   <si>
@@ -139,6 +166,9 @@
     <t xml:space="preserve">Karatetieger 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Attack of the Killer Tomatoes!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Traurig</t>
   </si>
   <si>
@@ -154,6 +184,9 @@
     <t xml:space="preserve">Schindlers Liste</t>
   </si>
   <si>
+    <t xml:space="preserve">The Mist</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mindfuck</t>
   </si>
   <si>
@@ -166,7 +199,10 @@
     <t xml:space="preserve">The Usual Suspects</t>
   </si>
   <si>
-    <t xml:space="preserve">10 Cloverfield Lane</t>
+    <t xml:space="preserve">Fight Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabin in the Woods</t>
   </si>
   <si>
     <t xml:space="preserve">Kunstfilm</t>
@@ -196,6 +232,9 @@
     <t xml:space="preserve">E.T.</t>
   </si>
   <si>
+    <t xml:space="preserve">Psycho</t>
+  </si>
+  <si>
     <t xml:space="preserve">Animation</t>
   </si>
   <si>
@@ -211,6 +250,9 @@
     <t xml:space="preserve">König der Löwen</t>
   </si>
   <si>
+    <t xml:space="preserve">Frankenweenie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Horror</t>
   </si>
   <si>
@@ -226,6 +268,9 @@
     <t xml:space="preserve">Halloween</t>
   </si>
   <si>
+    <t xml:space="preserve">The Conjuring</t>
+  </si>
+  <si>
     <t xml:space="preserve">SciFi</t>
   </si>
   <si>
@@ -241,6 +286,9 @@
     <t xml:space="preserve">Episode V</t>
   </si>
   <si>
+    <t xml:space="preserve">Aliens</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wild Card</t>
   </si>
   <si>
@@ -254,6 +302,9 @@
   </si>
   <si>
     <t xml:space="preserve">Der mit dem Wolf tanzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jennifer‘s Body</t>
   </si>
 </sst>
 </file>
@@ -350,21 +401,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.05102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,249 +443,300 @@
       <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>77</v>
+        <v>93</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -20,7 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+  <si>
+    <t xml:space="preserve">Jonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludwig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
   <si>
     <t xml:space="preserve">Tim</t>
   </si>
@@ -28,283 +46,271 @@
     <t xml:space="preserve">Adrian</t>
   </si>
   <si>
-    <t xml:space="preserve">Jonas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tatti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daniel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Komödie</t>
   </si>
   <si>
+    <t xml:space="preserve">Superbad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Wunderbare Welt der Schwerkraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manichithrathazhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Million Ways to Die in the West</t>
   </si>
   <si>
     <t xml:space="preserve">American Pie Beta House</t>
   </si>
   <si>
-    <t xml:space="preserve">Superbad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Wunderbare Welt der Schwerkraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manichithrathazhu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acion</t>
   </si>
   <si>
     <t xml:space="preserve">Mad Max</t>
   </si>
   <si>
+    <t xml:space="preserve">Last Samurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before I Wake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardcore Henry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avengers</t>
+  </si>
+  <si>
     <t xml:space="preserve">London Has Fallen</t>
   </si>
   <si>
-    <t xml:space="preserve">Last Samurai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before I Wake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardcore Henry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avengers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Superheld</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr. Strange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiderman 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ant Man</t>
   </si>
   <si>
     <t xml:space="preserve">Batman Begins</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Strange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiderman 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hellboy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Western</t>
   </si>
   <si>
+    <t xml:space="preserve">The Good, the Bad and the Ugly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Fäuste für ein Halleluja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bone Tomahawk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Magnificent 7</t>
   </si>
   <si>
     <t xml:space="preserve">Django Unchained</t>
   </si>
   <si>
-    <t xml:space="preserve">The Good, the Bad and the Ugly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Fäuste für ein Halleluja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bone Tomahawk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Weihnachten</t>
   </si>
   <si>
+    <t xml:space="preserve">Die Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It‘s a Wonderful Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry Potter I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kevin allein in New York</t>
   </si>
   <si>
     <t xml:space="preserve">Der kleine Lord</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It‘s a Wonderful Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krampus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry Potter I</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trash</t>
   </si>
   <si>
+    <t xml:space="preserve">The Spongebob Movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karatetieger 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack of the Killer Tomatoes!</t>
+  </si>
+  <si>
     <t xml:space="preserve">The VVitch </t>
   </si>
   <si>
     <t xml:space="preserve">Delta Farce</t>
   </si>
   <si>
-    <t xml:space="preserve">The Spongebob Movie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karatetieger 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack of the Killer Tomatoes!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Traurig</t>
   </si>
   <si>
+    <t xml:space="preserve">Saving Private Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schindlers Liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mist</t>
+  </si>
+  <si>
     <t xml:space="preserve">Green Mile</t>
   </si>
   <si>
     <t xml:space="preserve">The Blind Side</t>
   </si>
   <si>
-    <t xml:space="preserve">Saving Private Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schindlers Liste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Mist</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mindfuck</t>
   </si>
   <si>
+    <t xml:space="preserve">The Usual Suspects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabin in the Woods</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shutter Island</t>
   </si>
   <si>
     <t xml:space="preserve">The Departed</t>
   </si>
   <si>
-    <t xml:space="preserve">The Usual Suspects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabin in the Woods</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kunstfilm</t>
   </si>
   <si>
+    <t xml:space="preserve">Stalker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Angry Men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rare Export</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frida</t>
   </si>
   <si>
-    <t xml:space="preserve">Stalker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Angry Men</t>
-  </si>
-  <si>
     <t xml:space="preserve">große Regisseure</t>
   </si>
   <si>
+    <t xml:space="preserve">North by Northwest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psycho</t>
+  </si>
+  <si>
     <t xml:space="preserve">American Hustle</t>
   </si>
   <si>
     <t xml:space="preserve">Inception</t>
   </si>
   <si>
-    <t xml:space="preserve">North by Northwest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psycho</t>
-  </si>
-  <si>
     <t xml:space="preserve">Animation</t>
   </si>
   <si>
+    <t xml:space="preserve">The Lego Movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">König der Löwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankenweenie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incredibles</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zoomania</t>
   </si>
   <si>
     <t xml:space="preserve">Wal-E</t>
   </si>
   <si>
-    <t xml:space="preserve">The Lego Movie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">König der Löwen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankenweenie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Horror</t>
   </si>
   <si>
+    <t xml:space="preserve">The Thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halloween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Conjuring</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Boy</t>
   </si>
   <si>
     <t xml:space="preserve">A Serbien Film</t>
   </si>
   <si>
-    <t xml:space="preserve">The Thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halloween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Conjuring</t>
-  </si>
-  <si>
     <t xml:space="preserve">SciFi</t>
   </si>
   <si>
+    <t xml:space="preserve">Terminator 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Episode V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliens</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matrix</t>
   </si>
   <si>
     <t xml:space="preserve">Star Treck I</t>
   </si>
   <si>
-    <t xml:space="preserve">Terminator 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Episode V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliens</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wild Card</t>
   </si>
   <si>
+    <t xml:space="preserve">Monty Python and the Holy Grail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der mit dem Wolf tanzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jennifer‘s Body</t>
+  </si>
+  <si>
     <t xml:space="preserve">Legend</t>
   </si>
   <si>
     <t xml:space="preserve">Unstoppable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monty Python and the Holy Grail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der mit dem Wolf tanzt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jennifer‘s Body</t>
   </si>
 </sst>
 </file>
@@ -314,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -335,6 +341,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -379,8 +394,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,6 +412,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -404,20 +483,20 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7448979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.05102040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.05102040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.734693877551"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -460,13 +539,13 @@
       <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -481,19 +560,19 @@
         <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>22</v>
@@ -512,13 +591,13 @@
       <c r="D4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>29</v>
       </c>
     </row>
@@ -535,10 +614,10 @@
       <c r="D5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -555,13 +634,13 @@
       <c r="D6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -578,10 +657,10 @@
       <c r="D7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>48</v>
       </c>
     </row>
@@ -598,10 +677,10 @@
       <c r="D8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>54</v>
       </c>
     </row>
@@ -609,7 +688,7 @@
       <c r="A9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -618,10 +697,10 @@
       <c r="D9" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>60</v>
       </c>
     </row>
@@ -629,114 +708,120 @@
       <c r="A10" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="B10" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="C10" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="0" t="s">
         <v>64</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>70</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="0" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>76</v>
       </c>
+      <c r="H12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="0" t="s">
         <v>82</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="0" t="s">
         <v>88</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="0" t="s">
         <v>94</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t xml:space="preserve">Jonas</t>
   </si>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">The Spongebob Movie</t>
   </si>
   <si>
-    <t xml:space="preserve">Karatetieger 3</t>
+    <t xml:space="preserve">Karatetiger 3</t>
   </si>
   <si>
     <t xml:space="preserve">Attack of the Killer Tomatoes!</t>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cabin in the Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interstellar</t>
   </si>
   <si>
     <t xml:space="preserve">Shutter Island</t>
@@ -483,7 +486,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -494,7 +497,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6938775510204"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.05102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0459183673469"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3673469387755"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.734693877551"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
@@ -697,131 +700,134 @@
       <c r="D9" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="G9" s="0" t="s">
+        <v>59</v>
+      </c>
       <c r="H9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">Episode V</t>
   </si>
   <si>
-    <t xml:space="preserve">Aliens</t>
+    <t xml:space="preserve">They Live</t>
   </si>
   <si>
     <t xml:space="preserve">Matrix</t>
@@ -486,21 +486,20 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:G"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.4081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>Jonas</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Sin City</t>
+  </si>
+  <si>
+    <t>Die Verurteilten?</t>
   </si>
 </sst>
 </file>
@@ -785,7 +788,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1042,6 +1045,9 @@
       <c r="D10" t="s">
         <v>65</v>
       </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
       <c r="I10" t="s">
         <v>66</v>
       </c>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
   <si>
     <t xml:space="preserve">Jonas</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Adrian</t>
   </si>
   <si>
+    <t xml:space="preserve">Johanna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Komödie</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t xml:space="preserve">Batman Begins</t>
   </si>
   <si>
+    <t xml:space="preserve">X-Men</t>
+  </si>
+  <si>
     <t xml:space="preserve">Western</t>
   </si>
   <si>
@@ -137,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">Winnetou (1963)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rango</t>
   </si>
   <si>
     <t xml:space="preserve">Magnificent 7</t>
@@ -546,23 +555,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.1632653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="11.530612244898"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -591,375 +592,384 @@
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
   <si>
     <t xml:space="preserve">Jonas</t>
   </si>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">Matrix</t>
   </si>
   <si>
-    <t xml:space="preserve">Star Treck I</t>
+    <t xml:space="preserve">Star Trek I</t>
   </si>
   <si>
     <t xml:space="preserve">Wild Card</t>
@@ -376,10 +376,13 @@
     <t xml:space="preserve">Der mit dem Wolf tanzt</t>
   </si>
   <si>
-    <t xml:space="preserve">Jennifer‘s Body</t>
+    <t xml:space="preserve">Aliens</t>
   </si>
   <si>
     <t xml:space="preserve">Sin City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Swan</t>
   </si>
   <si>
     <t xml:space="preserve">The Shawshank Redemption</t>
@@ -398,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -425,6 +428,21 @@
       <i val="true"/>
       <sz val="10"/>
       <color rgb="FFFF3333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -472,7 +490,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -482,6 +500,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,13 +591,15 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="4" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,8 +692,8 @@
       </c>
       <c r="J3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -753,7 +781,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -940,8 +968,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -966,8 +994,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -982,14 +1010,17 @@
       <c r="E15" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
   <si>
     <t xml:space="preserve">Jonas</t>
   </si>
@@ -265,121 +265,124 @@
     <t xml:space="preserve">Rare Export</t>
   </si>
   <si>
+    <t xml:space="preserve">Sin City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">große Regisseure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North by Northwest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psycho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurassic Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001: A Space Odyssey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Hustle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lego Movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">König der Löwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankenweenie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sausage Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incredibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoomania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halloween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Conjuring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hills have eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Exorcist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Serbien Film</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SciFi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminator 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Episode V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They Live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enders Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Trek I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monty Python and the Holy Grail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der mit dem Wolf tanzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliens</t>
+  </si>
+  <si>
     <t xml:space="preserve">Die Verurteilten?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">große Regisseure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North by Northwest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psycho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jurassic Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001: A Space Odyssey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Hustle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Lego Movie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">König der Löwen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankenweenie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sausage Party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incredibles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoomania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wal-E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Thing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halloween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Conjuring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hills have eyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Exorcist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Serbien Film</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SciFi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminator 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Episode V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They Live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Star Trek I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monty Python and the Holy Grail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der mit dem Wolf tanzt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin City</t>
   </si>
   <si>
     <t xml:space="preserve">Black Swan</t>
@@ -401,7 +404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -436,13 +439,6 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFF3333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -490,7 +486,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -504,10 +500,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -590,16 +582,16 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="4" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.07"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="1" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="8.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +685,7 @@
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -863,7 +855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
@@ -942,7 +934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -969,13 +961,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -984,49 +976,52 @@
       <c r="E14" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
   <si>
     <t xml:space="preserve">Jonas</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Hills have eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mama</t>
   </si>
   <si>
     <t xml:space="preserve">The Exorcist</t>
@@ -583,7 +586,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -591,7 +594,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.07"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="1" width="11.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,7 +776,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -935,13 +938,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -950,72 +953,75 @@
       <c r="E13" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Last Samurai</t>
   </si>
   <si>
-    <t xml:space="preserve">Before I Wake</t>
+    <t xml:space="preserve">Predator</t>
   </si>
   <si>
     <t xml:space="preserve">Hardcore Henry</t>
@@ -433,7 +433,7 @@
       <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
-      <color rgb="FFFF3333"/>
+      <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -441,7 +441,7 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFFF3333"/>
+      <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -519,7 +519,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -586,10 +586,10 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.07"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
@@ -657,8 +657,8 @@
       </c>
       <c r="J2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -667,7 +667,7 @@
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -831,7 +831,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -996,7 +996,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B15" s="1" t="s">

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -431,7 +431,6 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
       <sz val="10"/>
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
@@ -440,6 +439,7 @@
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,10 +667,10 @@
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -688,10 +688,10 @@
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -700,7 +700,7 @@
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -791,7 +791,7 @@
       <c r="E7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -835,7 +835,7 @@
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -938,13 +938,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -967,13 +967,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1011,7 +1011,7 @@
       <c r="E15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G15" s="1" t="s">

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="127">
   <si>
     <t xml:space="preserve">Jonas</t>
   </si>
@@ -217,7 +217,10 @@
     <t xml:space="preserve">The Mist</t>
   </si>
   <si>
-    <t xml:space="preserve">The Notebook</t>
+    <t xml:space="preserve">Forrest Gump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up</t>
   </si>
   <si>
     <t xml:space="preserve">Requiem for a Dream</t>
@@ -586,7 +589,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -804,8 +807,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -820,208 +823,210 @@
       <c r="E8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>100</v>
+      <c r="A13" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
   <si>
     <t xml:space="preserve">Jonas</t>
   </si>
@@ -46,9 +46,6 @@
     <t xml:space="preserve">Adrian</t>
   </si>
   <si>
-    <t xml:space="preserve">Johanna</t>
-  </si>
-  <si>
     <t xml:space="preserve">Komödie</t>
   </si>
   <si>
@@ -67,7 +64,7 @@
     <t xml:space="preserve">Oscar</t>
   </si>
   <si>
-    <t xml:space="preserve">La La Land</t>
+    <t xml:space="preserve">Der Diktator</t>
   </si>
   <si>
     <t xml:space="preserve">A Million Ways to Die in the West</t>
@@ -125,9 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">Batman Begins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-Men</t>
   </si>
   <si>
     <t xml:space="preserve">Western</t>
@@ -434,6 +428,7 @@
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
@@ -442,7 +437,6 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
       <sz val="10"/>
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
@@ -589,10 +583,10 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.07"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
@@ -600,7 +594,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="8.21"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -626,407 +620,401 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="0"/>
       <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -404,7 +404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -425,6 +425,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -486,7 +493,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -500,6 +507,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,7 +594,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -625,7 +636,7 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -652,7 +663,7 @@
       <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -661,10 +672,10 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -682,10 +693,10 @@
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -694,7 +705,7 @@
       <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -782,7 +793,7 @@
       <c r="E7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -796,7 +807,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -811,7 +822,7 @@
       <c r="E8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -828,7 +839,7 @@
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -902,10 +913,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -937,7 +948,7 @@
       <c r="B13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -963,10 +974,10 @@
       <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1004,7 +1015,7 @@
       <c r="E15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>121</v>
       </c>
       <c r="G15" s="1" t="s">

--- a/Filme.xlsx
+++ b/Filme.xlsx
@@ -427,8 +427,9 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -443,9 +444,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFCE181E"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -693,7 +693,7 @@
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -807,7 +807,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1015,7 +1015,7 @@
       <c r="E15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>121</v>
       </c>
       <c r="G15" s="1" t="s">
